--- a/results/mod3.lrgenBYhealth.eff.COMB.xlsx
+++ b/results/mod3.lrgenBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0249705718815683</v>
+        <v>-0.0249711167468199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0209648673211878</v>
+        <v>0.0209647287078542</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0660609567717571</v>
+        <v>-0.0660612299598671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0161198130086205</v>
+        <v>0.0161189964662273</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.19106748919571</v>
+        <v>-1.1911013538403</v>
       </c>
       <c r="H2" t="n">
-        <v>0.233627091485018</v>
+        <v>0.233613798464351</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00124996056618108</v>
+        <v>0.00125056812840809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0143274074132815</v>
+        <v>0.0143272995495073</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0268312419556829</v>
+        <v>-0.0268304229843432</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0293311630880451</v>
+        <v>0.0293315592411594</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08724262039358</v>
+        <v>0.0872856831175202</v>
       </c>
       <c r="H3" t="n">
-        <v>0.930478662310201</v>
+        <v>0.930444433801646</v>
       </c>
     </row>
   </sheetData>
